--- a/data/2024/mall_numbers_2024.xlsx
+++ b/data/2024/mall_numbers_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfriendly\Desktop\kgun\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8BF89-01BD-4592-BCB5-43D05121003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBD4CAB-C912-43DE-95A3-4E232EFF0377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="4050" windowWidth="29040" windowHeight="15720" xr2:uid="{0313067E-89E9-4EDD-AAD4-ECAAB4C57747}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1282,16 +1282,16 @@
         <v>2024</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
